--- a/As-Is/Result/Transporter.xlsx
+++ b/As-Is/Result/Transporter.xlsx
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Capa</t>
+    <t>Number</t>
   </si>
 </sst>
 </file>
